--- a/EvaluationResults/RQ2+RQ3/1-SlsDetector-gemini-result.xlsx
+++ b/EvaluationResults/RQ2+RQ3/1-SlsDetector-gemini-result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia WorkSpace/serverless misconfiguration/LLM新方法设计/AllCode/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ED02EA-FA29-1E4E-B83C-45E9AA1AE350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBFF129-6C3E-984C-82F5-A333D5C85A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5300" yWindow="-19840" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gpt4o" sheetId="1" r:id="rId1"/>
@@ -1152,7 +1152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,17 +1189,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1517,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -1533,34 +1524,32 @@
     <col min="9" max="9" width="14" style="7"/>
     <col min="10" max="10" width="14" style="1"/>
     <col min="11" max="11" width="14" style="7"/>
-    <col min="12" max="12" width="14" style="1"/>
-    <col min="13" max="13" width="14" style="15"/>
-    <col min="14" max="16384" width="14" style="1"/>
+    <col min="12" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="15" customFormat="1" ht="96" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:16" ht="96" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="4" t="s">
         <v>305</v>
       </c>
       <c r="I1" s="12" t="s">
@@ -1618,7 +1607,7 @@
         <f t="shared" ref="L2:L33" si="1">G2-K2</f>
         <v>126</v>
       </c>
-      <c r="M2" s="13"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="P2" s="4"/>
     </row>
@@ -1661,7 +1650,7 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="M3" s="13"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="P3" s="4"/>
     </row>
@@ -1704,7 +1693,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="M4" s="13"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="P4" s="4"/>
     </row>
@@ -1747,7 +1736,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="M5" s="13"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="P5" s="4"/>
     </row>
@@ -1790,7 +1779,7 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="M6" s="13"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="P6" s="4"/>
     </row>
@@ -1833,7 +1822,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="M7" s="13"/>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="P7" s="4"/>
     </row>
@@ -1876,7 +1865,7 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="M8" s="13"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="P8" s="4"/>
     </row>
@@ -1919,7 +1908,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="M9" s="13"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="P9" s="4"/>
     </row>
@@ -1962,7 +1951,7 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="M10" s="13"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="P10" s="4"/>
     </row>
@@ -2005,7 +1994,7 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="M11" s="14"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="P11" s="4"/>
     </row>
@@ -2048,7 +2037,7 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="M12" s="13"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="P12" s="4"/>
     </row>
@@ -2091,7 +2080,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="M13" s="13"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="P13" s="4"/>
     </row>
@@ -2134,7 +2123,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="M14" s="13"/>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="P14" s="4"/>
     </row>
@@ -2177,7 +2166,7 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="M15" s="13"/>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="P15" s="4"/>
     </row>
@@ -2220,7 +2209,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="M16" s="13"/>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="P16" s="4"/>
     </row>
@@ -2263,7 +2252,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="M17" s="13"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="P17" s="4"/>
     </row>
@@ -2306,7 +2295,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="M18" s="13"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="P18" s="4"/>
     </row>
@@ -2349,7 +2338,7 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="M19" s="13"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="P19" s="4"/>
     </row>
@@ -2392,7 +2381,7 @@
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="M20" s="13"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="P20" s="4"/>
     </row>
@@ -2435,7 +2424,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="M21" s="13"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="P21" s="4"/>
     </row>
@@ -2478,7 +2467,7 @@
         <f t="shared" si="1"/>
         <v>517</v>
       </c>
-      <c r="M22" s="13"/>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="P22" s="4"/>
     </row>
@@ -2521,7 +2510,7 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="M23" s="13"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="P23" s="4"/>
     </row>
@@ -2564,7 +2553,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="M24" s="13"/>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="P24" s="4"/>
     </row>
@@ -2607,7 +2596,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="M25" s="13"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="P25" s="4"/>
     </row>
@@ -2650,7 +2639,7 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="M26" s="13"/>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="P26" s="4"/>
     </row>
@@ -2693,7 +2682,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="M27" s="13"/>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="P27" s="4"/>
     </row>
@@ -2736,7 +2725,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="M28" s="13"/>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="P28" s="2"/>
     </row>
@@ -2779,7 +2768,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M29" s="13"/>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="P29" s="2"/>
     </row>
@@ -2822,7 +2811,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="M30" s="13"/>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="P30" s="2"/>
     </row>
@@ -2865,7 +2854,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="M31" s="13"/>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="P31" s="2"/>
     </row>
@@ -2908,7 +2897,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="M32" s="13"/>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="P32" s="2"/>
     </row>
@@ -2951,7 +2940,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="M33" s="13"/>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="P33" s="2"/>
     </row>
@@ -2994,7 +2983,7 @@
         <f t="shared" ref="L34:L65" si="3">G34-K34</f>
         <v>16</v>
       </c>
-      <c r="M34" s="13"/>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="P34" s="2"/>
     </row>
@@ -3037,7 +3026,7 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="M35" s="13"/>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="P35" s="2"/>
     </row>
@@ -3080,7 +3069,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M36" s="13"/>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="P36" s="2"/>
     </row>
@@ -3123,7 +3112,7 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="M37" s="13"/>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="P37" s="2"/>
     </row>
@@ -3166,7 +3155,7 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="M38" s="13"/>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="P38" s="4"/>
     </row>
@@ -3209,7 +3198,7 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="M39" s="13"/>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="P39" s="2"/>
     </row>
@@ -3252,7 +3241,7 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="M40" s="13"/>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="P40" s="2"/>
     </row>
@@ -3295,7 +3284,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="M41" s="13"/>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="P41" s="2"/>
     </row>
@@ -3338,7 +3327,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="M42" s="13"/>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="P42" s="2"/>
     </row>
@@ -3381,7 +3370,7 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="M43" s="13"/>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="P43" s="2"/>
     </row>
@@ -3424,7 +3413,7 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M44" s="13"/>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="P44" s="2"/>
     </row>
@@ -3467,7 +3456,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M45" s="13"/>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="P45" s="2"/>
     </row>
@@ -3510,7 +3499,7 @@
         <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="M46" s="13"/>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="P46" s="2"/>
     </row>
@@ -3553,7 +3542,7 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="M47" s="13"/>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="P47" s="2"/>
     </row>
@@ -3596,7 +3585,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M48" s="13"/>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="P48" s="2"/>
     </row>
@@ -3639,7 +3628,7 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M49" s="13"/>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="P49" s="2"/>
     </row>
@@ -3682,7 +3671,7 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="M50" s="13"/>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="P50" s="2"/>
     </row>
@@ -3725,7 +3714,7 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M51" s="13"/>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="P51" s="2"/>
     </row>
@@ -3768,7 +3757,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M52" s="13"/>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="P52" s="2"/>
     </row>
@@ -3811,7 +3800,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M53" s="13"/>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="P53" s="2"/>
     </row>
@@ -3854,7 +3843,7 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="M54" s="13"/>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="P54" s="2"/>
     </row>
@@ -3897,7 +3886,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="M55" s="13"/>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="P55" s="2"/>
     </row>
@@ -3940,7 +3929,7 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="M56" s="13"/>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="P56" s="2"/>
     </row>
@@ -3983,7 +3972,7 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="M57" s="13"/>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="P57" s="2"/>
     </row>
@@ -4026,7 +4015,7 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="M58" s="13"/>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="P58" s="2"/>
     </row>
@@ -4069,7 +4058,7 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="M59" s="13"/>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="P59" s="2"/>
     </row>
@@ -4112,7 +4101,7 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="M60" s="13"/>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="P60" s="2"/>
     </row>
@@ -4155,7 +4144,7 @@
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="M61" s="13"/>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="P61" s="2"/>
     </row>
@@ -4198,7 +4187,7 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="M62" s="13"/>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="P62" s="2"/>
     </row>
@@ -4241,7 +4230,7 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="M63" s="13"/>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="P63" s="2"/>
     </row>
@@ -4284,7 +4273,7 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="M64" s="13"/>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="P64" s="2"/>
     </row>
@@ -4327,7 +4316,7 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M65" s="13"/>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="P65" s="2"/>
     </row>
@@ -4370,7 +4359,7 @@
         <f t="shared" ref="L66:L97" si="5">G66-K66</f>
         <v>19</v>
       </c>
-      <c r="M66" s="13"/>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="P66" s="2"/>
     </row>
@@ -4413,7 +4402,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="M67" s="13"/>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="P67" s="2"/>
     </row>
@@ -4456,7 +4445,7 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="M68" s="13"/>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="P68" s="2"/>
     </row>
@@ -4499,7 +4488,7 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="M69" s="13"/>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="P69" s="2"/>
     </row>
@@ -4542,7 +4531,7 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="M70" s="13"/>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="P70" s="2"/>
     </row>
@@ -4585,7 +4574,7 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="M71" s="13"/>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="P71" s="2"/>
     </row>
@@ -4628,7 +4617,7 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="M72" s="13"/>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="P72" s="2"/>
     </row>
@@ -4671,7 +4660,7 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="M73" s="13"/>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="P73" s="2"/>
     </row>
@@ -4714,7 +4703,7 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="M74" s="13"/>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="P74" s="2"/>
     </row>
@@ -4757,7 +4746,7 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="M75" s="13"/>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="P75" s="2"/>
     </row>
@@ -4800,7 +4789,7 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="M76" s="13"/>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="P76" s="2"/>
     </row>
@@ -4843,7 +4832,7 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="M77" s="13"/>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="P77" s="2"/>
     </row>
@@ -4886,7 +4875,7 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="M78" s="13"/>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="P78" s="2"/>
     </row>
@@ -4929,7 +4918,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="M79" s="13"/>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="P79" s="2"/>
     </row>
@@ -4972,7 +4961,7 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="M80" s="13"/>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="P80" s="2"/>
     </row>
@@ -5015,7 +5004,7 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="M81" s="13"/>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="P81" s="2"/>
     </row>
@@ -5058,7 +5047,7 @@
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="M82" s="13"/>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="P82" s="2"/>
     </row>
@@ -5101,7 +5090,7 @@
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="M83" s="13"/>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="P83" s="2"/>
     </row>
@@ -5144,7 +5133,7 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="M84" s="13"/>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="P84" s="2"/>
     </row>
@@ -5187,7 +5176,7 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="M85" s="13"/>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="P85" s="2"/>
     </row>
@@ -5230,7 +5219,7 @@
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="M86" s="13"/>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="P86" s="2"/>
     </row>
@@ -5273,7 +5262,7 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="M87" s="13"/>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="P87" s="2"/>
     </row>
@@ -5316,7 +5305,7 @@
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="M88" s="13"/>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="P88" s="2"/>
     </row>
@@ -5359,7 +5348,7 @@
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="M89" s="13"/>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="P89" s="2"/>
     </row>
@@ -5402,7 +5391,7 @@
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="M90" s="13"/>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="P90" s="2"/>
     </row>
@@ -5445,7 +5434,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="M91" s="13"/>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="P91" s="2"/>
     </row>
@@ -5488,7 +5477,7 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="M92" s="13"/>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="P92" s="2"/>
     </row>
@@ -5531,7 +5520,7 @@
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="M93" s="13"/>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="P93" s="2"/>
     </row>
@@ -5574,7 +5563,7 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="M94" s="13"/>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="P94" s="2"/>
     </row>
@@ -5617,7 +5606,7 @@
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="M95" s="13"/>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="P95" s="2"/>
     </row>
@@ -5660,7 +5649,7 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="M96" s="13"/>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="P96" s="2"/>
     </row>
@@ -5703,7 +5692,7 @@
         <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="M97" s="13"/>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="P97" s="2"/>
     </row>
@@ -5746,7 +5735,7 @@
         <f t="shared" ref="L98:L111" si="7">G98-K98</f>
         <v>15</v>
       </c>
-      <c r="M98" s="13"/>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="P98" s="2"/>
     </row>
@@ -5789,7 +5778,7 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="M99" s="13"/>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="P99" s="2"/>
     </row>
@@ -5832,7 +5821,7 @@
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="M100" s="13"/>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="P100" s="2"/>
     </row>
@@ -5875,7 +5864,7 @@
         <f t="shared" si="7"/>
         <v>47</v>
       </c>
-      <c r="M101" s="13"/>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="P101" s="2"/>
     </row>
@@ -5918,7 +5907,7 @@
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="M102" s="13"/>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="P102" s="2"/>
     </row>
@@ -5961,7 +5950,7 @@
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="M103" s="13"/>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="P103" s="2"/>
     </row>
@@ -5994,7 +5983,8 @@
         <v>1</v>
       </c>
       <c r="J104" s="4">
-        <v>0</v>
+        <f>H104-I104</f>
+        <v>1</v>
       </c>
       <c r="K104" s="6">
         <v>1</v>
@@ -6003,7 +5993,7 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="M104" s="13"/>
+      <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="P104" s="2"/>
     </row>
@@ -6045,7 +6035,7 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="M105" s="13"/>
+      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="P105" s="2"/>
     </row>
@@ -6088,7 +6078,7 @@
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="M106" s="13"/>
+      <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="P106" s="2"/>
     </row>
@@ -6131,7 +6121,7 @@
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="M107" s="13"/>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="P107" s="2"/>
     </row>
@@ -6174,7 +6164,7 @@
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="M108" s="13"/>
+      <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="P108" s="2"/>
     </row>
@@ -6217,7 +6207,7 @@
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="M109" s="13"/>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="P109" s="2"/>
     </row>
@@ -6260,7 +6250,7 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="M110" s="13"/>
+      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="P110" s="2"/>
     </row>
@@ -6303,13 +6293,13 @@
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="M111" s="13"/>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="P111" s="2"/>
     </row>
     <row r="112" spans="1:16" ht="18" customHeight="1">
       <c r="F112" s="1">
-        <f t="shared" ref="F112:M112" si="9">SUM(F2:F111)</f>
+        <f t="shared" ref="F112:K112" si="9">SUM(F2:F111)</f>
         <v>4416</v>
       </c>
       <c r="G112" s="1">
@@ -6326,17 +6316,17 @@
       </c>
       <c r="J112" s="4">
         <f t="shared" si="9"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K112" s="5">
         <f t="shared" si="9"/>
         <v>119</v>
       </c>
-      <c r="L112" s="15">
+      <c r="L112" s="1">
         <f>SUM(L2:L111)</f>
         <v>3989</v>
       </c>
-      <c r="M112" s="14"/>
+      <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
     <row r="114" spans="9:12" ht="18" customHeight="1">
@@ -6364,7 +6354,7 @@
       </c>
       <c r="J117" s="1">
         <f>I112/(I112+J112)</f>
-        <v>0.80130293159609123</v>
+        <v>0.79870129870129869</v>
       </c>
     </row>
     <row r="118" spans="9:12" ht="18" customHeight="1">
@@ -6373,7 +6363,7 @@
       </c>
       <c r="J118" s="1">
         <f>2*((J116*J117)/(J116+J117))</f>
-        <v>0.7321428571428571</v>
+        <v>0.73105497771173844</v>
       </c>
     </row>
     <row r="119" spans="9:12" ht="18" customHeight="1">
@@ -6382,7 +6372,7 @@
       </c>
       <c r="J119" s="1">
         <f>(I112+L112)/(I112+J112+K112+L112)</f>
-        <v>0.95922989807474524</v>
+        <v>0.95901268115942029</v>
       </c>
     </row>
   </sheetData>
